--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/67_Samsun_2020.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2020/67_Samsun_2020.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2020\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2020\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7D5B4B7C-AE79-4378-BDF2-643A178AE4B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9D9F163A-A330-46D8-9543-06F7464803E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{217FA210-F996-445A-8498-4E3C6BCC3B36}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="665" xr2:uid="{FDDE011D-631D-47F5-ABA3-67BC3D84B9D4}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="102" r:id="rId1"/>
@@ -973,14 +973,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{81D8B085-E5BE-4171-9D87-E19DA278BB46}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{A42EF003-6D4D-48AC-8D91-248C08B190C2}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{BD20A550-40E8-454B-844D-C628F9F5D69D}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{359F6AEA-2CEE-4727-86EF-27450E83A0FC}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{F4B32F87-320C-4403-B334-541BFB8D1F12}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{B4F46AE7-7B26-4CD9-8D46-87813D1D8E14}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{15D10CE1-95C8-4625-832A-B36460309E1B}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{EEEE805D-CE44-4A5E-9F7B-82E38F814CA0}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{B3CC8C14-3BAE-4AC7-BD28-E92E1BB1F6EC}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{B740D829-BC2F-4DD7-942F-EFB259CF7CB6}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{18E488BC-2320-4E17-8148-3927D29CB4C8}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{C777A9D4-909A-401E-8EBC-06ACAB59E89A}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{7DEEC047-9EF2-4C6F-8822-83557CF4AEC7}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{448C713F-7149-4F4B-9C34-D943FFC3DA31}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{7EF0F8B0-D185-4426-BC51-00E4318DDF0B}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{8FC9B3B4-12E9-4538-888B-9FF1BFFF7BCD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1350,7 +1350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90E768F1-AD76-412B-A8C3-A82FC5EA9E62}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CE328F5-E3D9-4E85-87EF-71FC364B5F40}">
   <dimension ref="A2:F103"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0"/>
@@ -2624,18 +2624,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{60805BF4-F7AD-4918-B6AF-1C466F0D1482}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{173D7C17-8488-42B5-9D28-4303E3AA03BE}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{234D26C2-A6A9-4138-9E1F-FF50F7D3BCF6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C6C8EBD9-48C6-42FF-B7AA-879CD4E560BA}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E6666EA4-03C4-45FC-A9C7-ED09335222AA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2D8F3E4F-6F9C-4981-8C84-D3A89C54E8CB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{20D96F5B-1B32-4E5C-8292-85E43FF25814}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4F75946B-A05F-453F-9E7C-54AC7EAE0655}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{28439E55-21CF-486D-BFA3-95F59B16CA55}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1B0717C0-637B-49A0-9F5E-E807995812C1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3355B164-0965-4E44-AD75-F231B0FB7045}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0EF492AB-D9D3-435F-8E42-E30F0D61C0FE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{99154758-00FC-448B-8CA7-31B1A4B95AAE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5C27BE84-B3EF-4AA8-80E9-869337369731}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{117125F4-352E-470A-838F-10BF010D2449}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{804F57F1-C82B-4381-B1B6-6F07960549EE}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{2C0566A8-14B3-4C7D-A2E5-9C9570121AFE}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{97DC834E-FC63-4BBD-B9EA-E8A854813E7F}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4D7F10EC-FCE8-4DD8-8A1E-30CDBD5F7A56}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E6EC0CEF-D996-4BF5-B612-90A2699BBC2A}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6375F45F-4113-495C-9D54-0F0178294CB9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{5F00B665-51E7-466B-AB58-F127F33B9F69}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{64E0DD83-DCAF-40D2-9721-ABDA5FB874F5}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{8DB570BA-95B8-4CCA-B5D5-B21F0407FF9B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2648,7 +2648,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6E2606B-A547-4864-A3F6-B61CD2D97547}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAB4A92C-F4D7-40D8-9103-427E367F5A3E}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -3904,18 +3904,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06255818-E9AE-4D21-8457-AC0BF79A400F}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{58EFCEF1-F22C-4A8C-A38F-FE21A88C05FC}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{11E50447-BC1F-4550-869F-E6F60ADD8154}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{002A895B-295C-4A35-85EF-FE145429B676}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{BF0CEC03-5AD5-4812-AEBA-4C9331F9186E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E4836DE0-7B59-4556-98B5-BB4F7099F103}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C8FC7172-F411-4E85-BC3F-52802AD8D922}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B8504EAC-3F08-4CBB-9AAA-E64AFEB1E92F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{939EFE68-4973-4E3B-A36D-3A7C3CF6EC13}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{67676753-9507-4A3C-A0BD-EA357422E88C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{41FB566C-3BE3-4791-9A49-536E3819913F}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{50B9BA7B-2140-4C4E-BD0B-2B1C9A3EDAF2}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{C921526E-0500-4D09-860A-77966517076E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{480C4E42-C575-41A1-9A75-9D5F5EB0BFBA}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{84DA51C9-F7E3-4DEF-AE8C-6428576172CA}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{DC292021-6BFE-4A49-9EA2-9B6548B6A3A5}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{CFC618C2-02FC-4913-969E-9A7D8FE178EC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2DE13FB3-DC21-43DF-A8DC-91CEB15DC0F8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{57BA6F70-8B92-4FEE-B067-51AF5C01ABD4}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F06EB131-3988-44EC-A059-CF64D603BF86}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FBFEF714-8664-44F1-80F8-8B797F88CE29}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E38C22D2-077E-4F52-A5C2-37E18DDC56AE}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4E02B96D-0760-4174-9444-C769A24254B1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{BB774D19-B10E-471A-A62E-C32B61969F87}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3928,7 +3928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56477A6D-2DDA-4920-8AAD-D73FA0635961}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D412D1A-5CAE-440B-B62B-F7C0F128ABDC}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -5180,18 +5180,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{244DE04B-75CE-41A0-89B4-D9DE19D08008}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0495992B-E4A3-47DB-ADE8-C202169096E3}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{724AF295-317D-4FC0-AECA-0A16066F345A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B1AA180F-8928-4658-89E9-BD4BC8F2939A}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{C154098D-156E-4526-9285-96A0EF87D383}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F0B6D1AE-F108-4B9A-B280-6BEAECC6FD20}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5DAB463A-B82C-4AE9-92CA-70946F7B221B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C4CB895-0B1E-43D5-9013-EF8972C62C50}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{03CC67B4-3E92-4901-8181-32D5DEB716DC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{14E7307D-DEA8-43EA-A7D7-A251D364366D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0549F7FD-8C85-435A-978B-CD26B77D5760}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1D19E3EB-CCEE-4E76-BD52-C8ABD68EC809}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{78C4A6D5-890D-47D9-9FD9-E798B8AF5263}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9BF80323-8DFC-45F6-97BF-3BCFC630B043}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{EE9346AC-EEC0-4657-9513-A1341EEF556E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{559DD5C6-CB77-4BCE-A32F-29ADC253CD49}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{80CC464E-50E6-4292-A6C5-35F97668F81D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0A6611B7-6F61-49B9-B3F7-B9451DDB779D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4090FBB0-CE8F-449C-8027-87E9DF14C7F0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6911BCC1-B70A-4ECE-B606-44D41FF8A70B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FB4E05CC-A38B-4D0B-BEB5-39B92BA6A1C8}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{36CDD349-A8B9-45D2-955C-96305EE706C4}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0C712934-6D0D-4A8D-9171-37371DA115CF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{1AC9E50D-9B26-499C-B89F-7F055DF547D6}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5204,7 +5204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA99C8FB-4C4E-4B4A-9ABA-9BE94A2E7535}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{80B5C146-BEED-459D-B188-229D52F01B31}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -6452,18 +6452,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B4350D34-7225-448F-A09C-ECAFBEE85D5C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7884DFA8-A9C1-4B0F-986E-A752108AED47}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{ABCBDED5-4FF8-46A6-88CC-15F605F9DE92}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{52FBD55F-30EC-4FA0-9417-4D3DE7F0C49A}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{7CF1D673-FB15-46B3-BAE1-86C2C82E110B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{87C4899C-291D-42B8-BB46-549DFB147958}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF564291-161F-418F-8D82-D1CA9572563F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{69077926-15A0-409C-AFB6-AADDD64E14A8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6D849F72-508D-4D13-91DE-45008E1E4C2D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{0ABF39AD-51AD-4ADC-BEB8-0C254F195087}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EF54C18A-A59A-41FE-8583-F8284EF51905}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2595B593-4A49-4CD2-B46F-3AA4EAA91C2E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DA763F2A-BDAC-4296-BF66-1B7DDD3AE011}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4843FCAA-AA15-455A-9494-99420CCB9906}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{58E49392-4B15-4DEC-A6D7-80A1A2CA1BC0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{38D9D7C1-D0AD-4E50-A85C-F34F954B2247}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{86A86FEA-9E64-4DAC-909B-042DCEC75409}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{802E3860-D74A-468F-89E1-E4D57A18F9D6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{FBF529F3-2BE3-4D83-9CF6-C7D6BE772458}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DDF3B007-D135-4149-AA56-4AD294FAD0BF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{964EDF64-5E88-4941-BBDD-6AFC2E2D9102}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A43CA7E7-3EB5-4155-B279-A91B0A564090}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1FC5C98F-8D5B-4F5C-B52B-05F22D55544D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{86F8CB58-A00A-49D5-AAF7-3C774FFF34C3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6476,7 +6476,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85DE1D4D-734C-47BC-8041-E7B6A7669F56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29F0466A-44C1-4233-90BE-7ED38F6CC125}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7747,18 +7747,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E17D7DBD-D584-417C-A82A-EF0C839DB4CE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9DC64764-C0B0-4CCE-A24A-717A6EA16809}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{668A9549-101A-49CA-BF0A-CC9A133364FC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{8DAAA2F0-8D00-4FC8-909D-1FADAECAF302}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{DAE0AB2E-9651-461F-B889-B65DD39CF66A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2B6E46FD-C7D0-4F9D-8770-3C04E7E2467E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7B2BCA66-619E-47B6-AB69-6BECAC646109}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B3607DD3-14E7-4027-9BD1-D1CD35F7721F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C32684BB-C5AD-42B1-AAEC-F77ECC75622F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9F4697DB-4CA3-4C47-B894-9DD707611017}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{076EB8E8-246F-4AEA-BB3B-AFE4358C3352}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5800D4C1-7CF5-43EB-BFDD-D2A407BF6535}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2E5DE4C0-E53F-47BE-828E-A7827E7DDD0E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3C54ABE5-0252-42F7-99AF-2841BADAC1E4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A2ABC8B0-A7DA-43F7-A309-66E669730C27}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F0431A02-0FEE-4485-A35B-E0264B1CA229}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6527F5EB-6DA4-43AC-9528-040BE90A8C86}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{943E1003-F3D9-43B4-9AC5-6CEA79F93024}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0BFF1A09-CDEE-4F8D-9E99-CCDF196E6BDA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{664FAEDB-9906-4890-85E0-DB593192A7F9}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{574700FF-0AE5-47EE-8D5F-7B8540EFB6A0}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DC4442D2-DC5D-43B7-8078-FD0CCD794B6A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{18ED0FE2-B50D-40C2-A40D-96A4CCDAE575}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AB24FA66-B1D6-4A16-A563-8A0869527EE1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7771,7 +7771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021BA4E9-87C6-4C3C-A53F-B3B6B6D24CCD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBC7E0DF-08A5-44F1-8516-6B2CD3810B30}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9042,18 +9042,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{22ED94BF-FCF6-4122-ABF7-4F014EF79304}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{65728791-C6AE-4AC4-AA6B-CE0AE9877DD1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3B8AFB2F-E19F-4CAC-A1A3-AC62F4B5C506}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{13BDC4A8-529D-48E4-9DAB-2E6F948FBD91}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{A28C6F01-D856-4E09-80B2-EFF5DE6A0D14}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D7A5C411-2FF1-4DF9-A65A-9D2AB7C81FCC}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{26B00D4C-6397-44E2-AA61-3864D84EFD50}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{74C498F4-E905-4547-A73D-53D0AD439B28}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EB40B62F-801F-4B81-95C2-39823F8550DD}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{365932DF-9842-4C4D-8E7B-C4303465C030}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F1A8D67F-2988-4D72-91B1-28E8EAF2DB46}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{AF9F0ADF-6E87-4FC5-AE0F-037129BFC9E8}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2ABEAD0C-9082-4436-BCA2-38DE0317859F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{681F5F12-17C2-470A-A8A8-63FF58A3111E}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F9EFDAE1-E0DC-4C81-97F1-04E396E2B95D}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CA94616C-5972-4746-8C74-D3D4A1DE1327}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{8529E1BC-24FF-4E9C-8A72-80DA7673814E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A898A286-5BF1-42AC-9140-3BF25D02EB7E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A824F1D5-B846-431A-9665-50D91CF75456}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9ECB436D-B1B5-42CC-88D9-9F23093D4282}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9A84B793-48FE-4549-B6A5-A3B3A3925962}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9715CDE5-14EE-4E15-A733-302189AD73BB}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{86D9D0D4-123C-4C57-BD68-3273B9C12BBE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9318BCBF-9C7D-4433-9ACD-EAAC24600AEF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9066,7 +9066,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02D058B0-C2C3-443E-832D-359BC1025F55}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32AA8807-C9F6-4DFA-AD4B-B30D17F94F35}">
   <dimension ref="B2:F102"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10337,18 +10337,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{63BCEE64-F389-477B-8D2D-071C30401DFE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BA43E407-5EC0-40DE-901A-3FB58E5A2D1D}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{92E092AB-FF32-43DB-A965-E79C0FC6DAE6}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{18A9797D-3048-48EB-804D-D4FC8EEF3BBB}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{D0D5BC4B-EF43-46C4-A4AC-916D8138FD49}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D61ED313-FA90-4781-B0AF-64E522600771}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{45A6A40C-8CB7-4FCB-8764-97BAF584EC89}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E51DC069-51B5-4A4C-8AB7-16830D3DC899}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{6E70F9F6-3BD5-41B5-9399-F0627B96715D}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{28443E78-8E24-4571-8A28-9B000E85BEE2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7ECCFA01-B82F-4206-899D-817B3C2813BD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E413DC6C-9E90-4C8E-8B56-6EEAA9C642D9}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B1ED17D4-C9F9-4908-9F6B-5807B4417E1C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3BCBB51D-F16D-433E-9AA6-C25FDCF9349C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{1041E41F-4D97-498D-B0F1-82A00D77002A}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{BC08EE93-9C05-41AE-9863-CAAC18974BA4}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{552D7362-99C3-4248-80F0-59D496A409FB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3C9BDD4F-1B6C-4A74-8B4B-A711855C98AD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{89156DB9-DE6D-4C3D-9591-DDB0E56B25C0}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9F1BCE25-CC17-4961-B51D-BFA8E30E5CB4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D548C843-A5AA-4D68-AB59-F1EEC0A07373}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9B9A3056-7EB6-4893-805A-E6A013183031}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F69CB780-6DEB-4284-AA69-1657C76C3CEF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DADBE026-7065-4E24-9813-D2C916DD0BCE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10361,7 +10361,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E97F25E-3C2D-4E3D-A56B-78FC3C112523}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8588319-70C2-4405-A5DA-4DF535321A61}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -11629,18 +11629,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7A144FBD-ABA0-4EF4-8420-34D2095404A8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C2B4676A-EC5F-49AD-BD9F-B74F3A72CAFB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D122D06F-7DD7-4896-9A29-BBA0AAE35CE5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{069C4BA4-7C4D-46C7-BF08-B8FF1E000B5B}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{E9E55E53-33CE-42F7-9852-D04661F14C8A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{75CD1194-6F11-428C-AE8C-88FF1E8A31BE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{837B6718-CD54-428E-8F54-6A4C658C4382}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1D0CB24A-A89D-479D-B93B-AB81D4A30885}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B27B3715-E167-47E2-A7EE-5A55DE109CF4}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{1E4D7C80-438F-438C-A7C4-D834EC35DA1F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{85382CDC-AC86-4A14-A05E-BF3AF5C0C27A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9D262E15-4043-4A5A-9905-3D0EE1A6A5B4}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{878C2F77-41B9-429B-BAB0-31EA2A6A975F}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9BEFEF55-1AD5-40BE-ABB2-B59FD8FF6325}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{3D2B6F8B-30A6-4B45-82AC-D0589F6FA459}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AE1234B8-6784-4CDE-B8AF-35AD348F08F4}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{064056F8-9C2C-4073-A69C-061E6DB94D1F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4CA9A6B6-4281-4C99-B380-C91616A859DE}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{973CCBB4-3EC1-44B1-BB22-662960984496}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2E2239A2-A32A-4F66-91CA-0999A9365B48}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35DECF5B-2D2F-4A17-98C2-BB70564ABA40}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{7CA9A357-9CDB-4369-AF7E-E95618B2DB32}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{17EE5D80-7411-4BC5-8FDD-FE76497AF72B}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{9918124A-5930-4081-A8EA-6C1C27F408BF}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11653,7 +11653,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79DA02DA-D1C0-441D-9F97-1E22A28607C2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5325E894-9D34-401E-9142-3EA87E07DAED}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -12921,18 +12921,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{845E811C-850A-4EE9-8963-C9A0FEA553E5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{C61BBC6D-B1BB-4897-A7ED-5B0007FDAA20}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E1F61926-D3BE-4FFA-80A0-F3CB24CC4B87}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{25A26342-8598-4D85-80FA-F9C499DEB197}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{3F6C3E97-8144-4DDB-9640-1630EE1A037C}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{93BE9295-CA79-47A8-86F5-230C3EA01227}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{795933BA-2362-43AE-A5E2-4B777D07C655}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A839C5A8-39E9-4B4C-ACB3-907F81EACEF5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{35A5A8DD-67B5-47AE-A865-3A9CCD54A03A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A15A936F-68F7-45DF-BC8E-B2385EC9CE24}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{048FEF3C-6BB5-4315-B19F-020E826F6459}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63C8F6ED-1F4E-45FE-BE04-89FE8597C41D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E6BEE481-E847-471D-96CB-8B6D1784D542}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{35BD03A9-7248-4B33-982F-EE4711B5886C}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{2A9E4B18-51CF-439E-A321-167263F8E6C6}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{7F0D2871-911C-470C-A4AB-DE3370AC2DE1}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0BCC868E-9628-4BF5-AF04-5D3EFD894683}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B87599C5-807C-466A-B2C2-FAC6F82981C5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7EA7B444-6F6A-49B0-A6C5-137BAFC3016C}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C7AEFEE-0C16-4BC7-8028-B7FA2EFE91BE}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C068A4B7-D81C-4E73-B67E-D8D4BAA26656}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D0FDC9A4-C562-4169-BDA2-56DBBE4CFA16}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{557E4C39-FB99-453B-96FA-DAD4F5BEC3BF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A3D2D15F-DFC3-4932-A37E-C1990EC6178E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -12945,7 +12945,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87257FB0-A4CC-43C4-853A-50F955F0E02A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0AFF0D16-F833-44C1-9628-5D8DB8C91F61}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -14209,18 +14209,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E7599AFD-DFC0-40A2-BB44-CDF7775D50C8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B124238A-0BA1-488C-9FF1-9E50A18F0463}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{5DD46194-128D-489A-B024-D6A07F637C94}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EAC86575-3B59-489B-BBB3-38800B2BF32D}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{ECE2CA05-0770-44B5-B733-438AB7460089}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5D04D1EB-9862-4FE7-B434-6BABB9581B6E}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3EB6184B-ABD0-4FFB-B5C5-8D04B9A51771}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BA047036-4F7C-463E-9D92-B79AEE03BC77}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73A48F1F-2DA4-4040-95A7-1375F5D19237}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{31745114-1F6D-4619-893D-5DE39D26E9C7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{341CD093-B007-44E1-A834-33A0DD9D9612}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4C3D09F3-6319-42B9-8351-74EF6875AB3E}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{36616019-87DE-4EC6-B40F-A805BC25C38E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BD86691D-BD0A-4091-9D36-AFEF0FC3CAD7}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{BDCECD44-AF07-40FF-AFD7-46F20C56AB22}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F3227B6C-9DEE-4307-9E7F-9667453E225C}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{6A6F66F4-DD94-49D1-A177-7C7403EF163D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB72BDB8-EFD5-4CA0-B075-1704AFF3423B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D75441C1-8067-4AA5-AE79-5C44398BF064}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{EBA582C7-FE40-40BD-8847-035385F4844F}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{F92D57D6-1C6D-4A44-8AB4-5D7EFD8CCF4B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C7AA1610-897B-41ED-B254-C0905452794F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B12140E3-A0CC-482F-A62C-CE9F7FF5AB19}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{13DF9858-5871-42BC-BA40-1EF62E39DAC3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14233,7 +14233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75AFEA31-5615-4F08-BF82-06AB3EFFB7F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC45270F-4E2F-4F4C-ACA1-7B2516440505}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -15497,18 +15497,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{54AAEE0B-E5B3-4DFD-B52F-8D32A3C819E5}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7C222631-7878-4685-9F62-242FA1C666A1}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4DE479D2-3644-493B-B003-BAE5DA7DAEAD}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5F926C0D-9008-4258-9B64-740E5FB5982D}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{5B918F46-F9BD-4E5B-A13C-19D091CBF533}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{922CAAF0-81B3-4962-977E-BFB51A674746}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{23C6BF3B-BB0D-4836-ABA2-31511EE927DD}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{509AA364-32AA-4C14-891A-C004CBB072FD}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{29BA1483-CE71-49DC-87B9-D1ABD1550832}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{376DC351-1545-4E5A-90D3-78C9C5AF73FB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2EBDDE34-0F7E-4B46-92E4-1510F13D7029}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{02753C99-68C4-494A-BF62-08674F84BBEB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{374D25CE-3F42-4C6F-A2E8-C8E8745D3FE7}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F8D7C9E9-7626-40EC-91FF-5766D71C3605}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{979A430A-349F-4C85-80BB-8D6668DA950E}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{AA94EDD9-D509-4ED7-950C-A0EFAC2D7CF4}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{28C36729-355D-41BD-8F27-588955032CE0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E18B03C3-5822-4982-A658-61A733685A00}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5B67F8EB-EFBD-44AE-80BE-872451AA21CC}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C3F155AF-B540-4D77-A5CC-6A6F907569ED}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{52D7385F-3519-4F0F-ACA3-31FD2A852C5D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EC28F775-AE3F-43E7-A50C-614989C3E53A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{10172C0A-0163-412D-9427-ACF424D656FE}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EC87DADD-682B-4254-9ED1-71E5986CFF4A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15521,7 +15521,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{356974BD-9E51-4C7A-8E1A-E197DB7386AB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A70284B-C4B7-47E3-AF70-2B4DF3FD0FC7}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F102"/>
   <sheetViews>
@@ -16785,18 +16785,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB3D862F-FA9D-4884-A702-89EB21586E44}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0AC2CE29-A8A6-4570-A087-66C128ED476A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{656516A0-9E25-4190-87FD-9C3F922F5A9F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{155E3079-A402-495D-A708-B48B3981FAC9}"/>
-    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{0BDF7623-5F45-4F07-B9A0-4B86EFE1DB94}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F884C13D-55DD-4439-A8CF-845323C56217}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BC2AEE7C-3D83-4B4B-BB5A-E70ED7FB7401}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E04DF63B-3992-481D-A850-C960B1DCA35E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{DB433B14-B09D-4CCE-B9C1-D22DC82F2780}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3BD2D420-1846-4A42-AA0E-92ED0C326802}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0DAF3237-DE85-4BBA-B05D-921839CA28E5}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CC3EFCBF-8E39-4E56-8E81-1D80B9D02915}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{462E2B9F-1A68-4B83-AD88-6AB3D9156356}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04E3D59A-53E8-4D54-9E63-8A697C93AEC0}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{7ED79251-912C-4F19-9537-03436B6E7CF8}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{CE22591A-B2FB-4D4D-B752-95BAA040D8E5}"/>
+    <hyperlink ref="D5" location="' MAYIS'!A1" display="MAYIS" xr:uid="{15D26C79-339E-4F68-A3C2-21BB059CFD6D}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9F19DF03-BED4-4348-857A-204F48E389CD}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7061D399-2671-4741-9416-709855556CA6}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{956E89E0-ECF6-40FB-8AE5-60D86347F675}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A7094E18-F757-4873-AEBE-BB9A738E1623}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C1BEE0ED-C68F-4D20-8E9C-FDE44C0B0B00}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E6AE2930-B310-438C-8EDE-C9F2D82E814F}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C6F6406D-BB3A-45F8-AC09-B940E9BE9F34}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
